--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Capitulos</t>
   </si>
@@ -396,7 +395,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -426,6 +425,9 @@
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Capitulos</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -419,6 +419,9 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Capitulos</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>3-Analisis y Evaluacion de Tecnlogias</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -432,10 +435,16 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Capitulos</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -443,6 +443,9 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -450,6 +453,9 @@
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Capitulos</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -456,6 +456,9 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Capitulos</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>En proceso</t>
+  </si>
+  <si>
+    <t>Leida</t>
+  </si>
+  <si>
+    <t>proceso</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -444,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -464,6 +470,9 @@
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Capitulos</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Leida</t>
   </si>
   <si>
-    <t>proceso</t>
+    <t>Preceso</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -472,12 +472,15 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Capitulos</t>
   </si>
@@ -60,13 +60,13 @@
     <t>3-Analisis y Evaluacion de Tecnlogias</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Leida</t>
   </si>
   <si>
     <t>Preceso</t>
+  </si>
+  <si>
+    <t>enProceso</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -450,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -474,18 +474,24 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
+++ b/trunk/Documentacion/INFORME FINAL/Teoria-Leida.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Capitulos</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Preceso</t>
   </si>
   <si>
-    <t>enProceso</t>
+    <t>en Proceso</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -485,23 +485,32 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
